--- a/Ele_Charge_Analysis/p-median/입지선정_1차선정.xlsx
+++ b/Ele_Charge_Analysis/p-median/입지선정_1차선정.xlsx
@@ -26,177 +26,203 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
+    <t>지역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 대수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 선정 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-median으로 공중전화부스 활용 입지선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나는 운림동, 하나는 인접동인 학동 내 공중전화부스 활용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2개가 필요하므로 흑석동, 장덕동 공중전화부스 활용, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백운동 내 공중전화부스 활용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서동에 인접한 공중전화부스는 제외, 남은 1개 부스 활용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공중전화부스가 1개이므로 그곳으로 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임암동-행암동 경계의 공중전화부스 동시 활용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공중전화부스가 1개뿐이므로 그곳으로 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공중전화부스가 2개이므로 그곳으로 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공중전화부스가 1개이므로 그곳으로 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공중전화부스 2개 중 임의 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p-median 활용 기준 : 주요교통플랫폼이 없고, 충전소가 없거나 멀리 떨어져 있는 경우 or 수요 동에는 공중전화가 없고, 인접동에 여러 개가 있는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공중전화부스 2개 중 1개 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터미널 앞 공중전화부스로 입지 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공중전화부스 여부와 관계 없이 공항으로 입지 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수완동-신창동 경계의 공중전화부스 3개 대상, p-median으로 2개소 입지 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11개 동 대상 p-median 입지 선정 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 12개 충전소 입지 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 수요 동 : 26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 수요 대수 : 29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>운림동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>하남동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>소촌동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신창동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>대인동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>백운동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신가동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>옥동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>문흥동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>중흥동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>장덕동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>운암동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>동구_지산동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신용동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>광천동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>매곡동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>서창동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>용산동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>수완동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>계림동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>두암동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>동구_산수동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>행암동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>서동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>임암동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신촌동</t>
-  </si>
-  <si>
-    <t>지역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필요 대수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 선정 결과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P-median으로 공중전화부스 활용 입지선정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나는 운림동, 하나는 인접동인 학동 내 공중전화부스 활용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2개가 필요하므로 흑석동, 장덕동 공중전화부스 활용, </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백운동 내 공중전화부스 활용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서동에 인접한 공중전화부스는 제외, 남은 1개 부스 활용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공중전화부스가 1개이므로 그곳으로 선정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임암동-행암동 경계의 공중전화부스 동시 활용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공중전화부스가 1개뿐이므로 그곳으로 선정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공중전화부스가 2개이므로 그곳으로 선정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공중전화부스가 1개이므로 그곳으로 선정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공중전화부스 2개 중 임의 선정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p-median 활용 기준 : 주요교통플랫폼이 없고, 충전소가 없거나 멀리 떨어져 있는 경우 or 수요 동에는 공중전화가 없고, 인접동에 여러 개가 있는 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공중전화부스 2개 중 1개 선정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>터미널 앞 공중전화부스로 입지 선정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공중전화부스 여부와 관계 없이 공항으로 입지 선정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수완동-신창동 경계의 공중전화부스 3개 대상, p-median으로 2개소 입지 선정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11개 동 대상 p-median 입지 선정 진행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 12개 충전소 입지 선정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 수요 동 : 26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 수요 대수 : 29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,14 +244,6 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -249,27 +267,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -282,14 +285,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,332 +576,333 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" style="3"/>
     <col min="3" max="3" width="59.19921875" customWidth="1"/>
     <col min="6" max="6" width="34.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
         <v>17</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Ele_Charge_Analysis/p-median/입지선정_1차선정.xlsx
+++ b/Ele_Charge_Analysis/p-median/입지선정_1차선정.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$28</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
   <si>
     <t>지역</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2개가 필요하므로 흑석동, 장덕동 공중전화부스 활용, </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>백운동 내 공중전화부스 활용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11개 동 대상 p-median 입지 선정 진행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,6 +218,113 @@
   </si>
   <si>
     <t>신촌동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광산구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광산구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광산구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역_구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">동구 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">서구 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">남구 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">북구 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">광산구 </t>
+  </si>
+  <si>
+    <t>구별 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 수요 동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-Median 적용 동 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2개가 필요하므로 흑석동, 산정동 공중전화부스 활용, </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -247,7 +349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +368,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -281,7 +395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -293,6 +407,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,26 +697,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.796875" style="3"/>
-    <col min="3" max="3" width="59.19921875" customWidth="1"/>
+    <col min="3" max="3" width="67.8984375" customWidth="1"/>
     <col min="6" max="6" width="34.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -603,10 +728,13 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -614,77 +742,95 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>30</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
@@ -692,21 +838,35 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -714,10 +874,25 @@
       <c r="C11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="4">
+        <v>6</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -725,10 +900,25 @@
       <c r="C12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -736,10 +926,25 @@
       <c r="C13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="4">
+        <v>4</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -747,10 +952,25 @@
       <c r="C14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="4">
+        <v>6</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -758,32 +978,65 @@
       <c r="C15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="4">
+        <v>8</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="4">
+        <v>26</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
@@ -792,45 +1045,54 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
@@ -838,10 +1100,13 @@
       <c r="C22" t="s">
         <v>3</v>
       </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
@@ -849,10 +1114,13 @@
       <c r="C23" t="s">
         <v>3</v>
       </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
@@ -860,52 +1128,68 @@
       <c r="C24" t="s">
         <v>3</v>
       </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D28"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
